--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2538806.982101498</v>
+        <v>-2541446.407578967</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.3387803012722</v>
       </c>
       <c r="H2" t="n">
-        <v>37.73704384745663</v>
+        <v>298.8789252992939</v>
       </c>
       <c r="I2" t="n">
-        <v>57.6554290829572</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.9961964020629</v>
       </c>
       <c r="T2" t="n">
         <v>205.7436268604466</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.2226130746801</v>
       </c>
       <c r="H3" t="n">
-        <v>91.75197580253082</v>
+        <v>91.75197580253081</v>
       </c>
       <c r="I3" t="n">
-        <v>16.37427717174646</v>
+        <v>16.37427717174643</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.2128846164207</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>146.4182938009555</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>101.9783166848766</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>97.34378597607535</v>
+        <v>97.34378597607532</v>
       </c>
       <c r="S4" t="n">
-        <v>193.029256032545</v>
+        <v>53.91322796504338</v>
       </c>
       <c r="T4" t="n">
-        <v>220.3482755304824</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2220423705616</v>
       </c>
       <c r="V4" t="n">
-        <v>3.782263561650529</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>125.8038519987751</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>268.0081557543813</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>106.8574981903362</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>2.148488117499204</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>111.1244160084626</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>126.5388824951704</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>30.27693440363741</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>191.2032661234058</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>11.76284745948022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856548</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012162</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>135.533419552834</v>
       </c>
     </row>
     <row r="14">
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>113.6427030833199</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>134.7851267360003</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>93.38904885909329</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>4.019807611471797</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016443</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892447</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703262</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>38.61213096654723</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892447</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2482,7 +2482,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545295</v>
+        <v>122.149315154529</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652592</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.9811888265252</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.9811888265259</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,19 +4189,19 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521.6602042145496</v>
+        <v>1159.521528428091</v>
       </c>
       <c r="C2" t="n">
-        <v>152.6976872741379</v>
+        <v>1159.521528428091</v>
       </c>
       <c r="D2" t="n">
-        <v>152.6976872741379</v>
+        <v>1159.521528428091</v>
       </c>
       <c r="E2" t="n">
-        <v>152.6976872741379</v>
+        <v>773.7332758298471</v>
       </c>
       <c r="F2" t="n">
-        <v>152.6976872741379</v>
+        <v>773.7332758298469</v>
       </c>
       <c r="G2" t="n">
-        <v>152.6976872741379</v>
+        <v>358.2395583538147</v>
       </c>
       <c r="H2" t="n">
-        <v>114.5794611655957</v>
+        <v>56.34165401109357</v>
       </c>
       <c r="I2" t="n">
-        <v>56.34165401109353</v>
+        <v>56.34165401109357</v>
       </c>
       <c r="J2" t="n">
-        <v>210.1777629739681</v>
+        <v>210.177762973969</v>
       </c>
       <c r="K2" t="n">
-        <v>491.4767306579188</v>
+        <v>491.4767306579192</v>
       </c>
       <c r="L2" t="n">
-        <v>877.3547360840312</v>
+        <v>877.3547360840321</v>
       </c>
       <c r="M2" t="n">
-        <v>1338.387805296444</v>
+        <v>1338.387805296446</v>
       </c>
       <c r="N2" t="n">
-        <v>1811.494679942782</v>
+        <v>1811.494679942783</v>
       </c>
       <c r="O2" t="n">
-        <v>2244.900824692379</v>
+        <v>2244.90082469238</v>
       </c>
       <c r="P2" t="n">
-        <v>2580.301941171661</v>
+        <v>2580.301941171663</v>
       </c>
       <c r="Q2" t="n">
-        <v>2784.001464928706</v>
+        <v>2784.001464928708</v>
       </c>
       <c r="R2" t="n">
-        <v>2817.082700554677</v>
+        <v>2817.082700554678</v>
       </c>
       <c r="S2" t="n">
-        <v>2817.082700554677</v>
+        <v>2712.036037522292</v>
       </c>
       <c r="T2" t="n">
-        <v>2609.260855241094</v>
+        <v>2504.214192208709</v>
       </c>
       <c r="U2" t="n">
-        <v>2355.696677129248</v>
+        <v>2250.650014096864</v>
       </c>
       <c r="V2" t="n">
-        <v>2024.633789785677</v>
+        <v>1919.587126753293</v>
       </c>
       <c r="W2" t="n">
-        <v>1671.865134515563</v>
+        <v>1919.587126753293</v>
       </c>
       <c r="X2" t="n">
-        <v>1298.399376254483</v>
+        <v>1546.121368492213</v>
       </c>
       <c r="Y2" t="n">
-        <v>908.2600442786713</v>
+        <v>1546.121368492213</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.5600913588484</v>
       </c>
       <c r="H3" t="n">
-        <v>72.88132792194854</v>
+        <v>72.88132792194855</v>
       </c>
       <c r="I3" t="n">
-        <v>56.34165401109353</v>
+        <v>56.34165401109357</v>
       </c>
       <c r="J3" t="n">
-        <v>253.9776646565421</v>
+        <v>129.1475396695375</v>
       </c>
       <c r="K3" t="n">
-        <v>456.5693443225989</v>
+        <v>593.5598039780471</v>
       </c>
       <c r="L3" t="n">
-        <v>775.3014001548896</v>
+        <v>912.291859810338</v>
       </c>
       <c r="M3" t="n">
-        <v>1166.603543863596</v>
+        <v>1303.594003519044</v>
       </c>
       <c r="N3" t="n">
-        <v>1582.670935876151</v>
+        <v>1719.6613955316</v>
       </c>
       <c r="O3" t="n">
-        <v>1941.071519006015</v>
+        <v>2078.061978661464</v>
       </c>
       <c r="P3" t="n">
-        <v>2209.386517878007</v>
+        <v>2430.341108709297</v>
       </c>
       <c r="Q3" t="n">
-        <v>2546.805307385484</v>
+        <v>2559.783383358284</v>
       </c>
       <c r="R3" t="n">
         <v>2559.783383358284</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1605.82789549877</v>
+        <v>774.2132370911355</v>
       </c>
       <c r="C4" t="n">
-        <v>1605.82789549877</v>
+        <v>605.2770541632286</v>
       </c>
       <c r="D4" t="n">
-        <v>1455.711256086435</v>
+        <v>455.1604147508929</v>
       </c>
       <c r="E4" t="n">
-        <v>1307.798162504042</v>
+        <v>307.2473211684998</v>
       </c>
       <c r="F4" t="n">
-        <v>1307.798162504042</v>
+        <v>307.2473211684998</v>
       </c>
       <c r="G4" t="n">
-        <v>1139.906359861193</v>
+        <v>307.2473211684998</v>
       </c>
       <c r="H4" t="n">
-        <v>1139.906359861193</v>
+        <v>159.3500547028881</v>
       </c>
       <c r="I4" t="n">
-        <v>1139.906359861193</v>
+        <v>56.34165401109357</v>
       </c>
       <c r="J4" t="n">
-        <v>1171.934956825158</v>
+        <v>88.37025097505898</v>
       </c>
       <c r="K4" t="n">
-        <v>1354.404617146754</v>
+        <v>270.8399112966555</v>
       </c>
       <c r="L4" t="n">
-        <v>1643.429394856084</v>
+        <v>559.8646890059858</v>
       </c>
       <c r="M4" t="n">
-        <v>1958.55462178097</v>
+        <v>874.9899159308719</v>
       </c>
       <c r="N4" t="n">
-        <v>2271.62149157095</v>
+        <v>1188.056785720852</v>
       </c>
       <c r="O4" t="n">
-        <v>2544.773121648723</v>
+        <v>1461.208415798624</v>
       </c>
       <c r="P4" t="n">
-        <v>2754.980847353639</v>
+        <v>1671.416141503541</v>
       </c>
       <c r="Q4" t="n">
-        <v>2817.082700554677</v>
+        <v>1733.517994704578</v>
       </c>
       <c r="R4" t="n">
-        <v>2718.755644013187</v>
+        <v>1635.190938163088</v>
       </c>
       <c r="S4" t="n">
-        <v>2523.776597515666</v>
+        <v>1580.733132137792</v>
       </c>
       <c r="T4" t="n">
-        <v>2301.20258182831</v>
+        <v>1580.733132137792</v>
       </c>
       <c r="U4" t="n">
-        <v>2012.089407716632</v>
+        <v>1291.619958026113</v>
       </c>
       <c r="V4" t="n">
-        <v>2008.26893947254</v>
+        <v>1291.619958026113</v>
       </c>
       <c r="W4" t="n">
-        <v>2008.26893947254</v>
+        <v>1002.202787989153</v>
       </c>
       <c r="X4" t="n">
-        <v>2008.26893947254</v>
+        <v>774.2132370911355</v>
       </c>
       <c r="Y4" t="n">
-        <v>1787.47636032901</v>
+        <v>774.2132370911355</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1384.829779622645</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C5" t="n">
-        <v>1015.867262682233</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D5" t="n">
-        <v>657.6015640754824</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>657.6015640754824</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>650.656063326279</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>235.5836131712754</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923658</v>
+        <v>2691.069367567292</v>
       </c>
       <c r="X5" t="n">
-        <v>2161.568951662578</v>
+        <v>2317.603609306213</v>
       </c>
       <c r="Y5" t="n">
-        <v>1771.429619686766</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>333.710820256795</v>
+        <v>883.7244168749156</v>
       </c>
       <c r="C7" t="n">
-        <v>333.710820256795</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D7" t="n">
-        <v>333.710820256795</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>333.710820256795</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>333.710820256795</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>166.007983631514</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="W7" t="n">
-        <v>782.4929502983425</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X7" t="n">
-        <v>554.5033994003252</v>
+        <v>1065.372881705155</v>
       </c>
       <c r="Y7" t="n">
-        <v>333.710820256795</v>
+        <v>1065.372881705155</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>483.2881024296526</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>476.3426016804491</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3197.788768583745</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3197.788768583745</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>3197.788768583745</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>3197.788768583745</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>953.2602595377767</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.908724368016</v>
+        <v>1222.853893554115</v>
       </c>
       <c r="Y10" t="n">
-        <v>1134.908724368016</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>962.6357307816182</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>793.6995478537114</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>643.5829084413756</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611858</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="14">
@@ -5279,16 +5279,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459577</v>
+        <v>781.3544215660703</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180508</v>
+        <v>612.4182386381634</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381634</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557703</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761975</v>
+        <v>963.00288639631</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1024.063349920562</v>
+        <v>576.838892758909</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>407.9027098310021</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310021</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310021</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5677,7 +5677,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>979.2799367326788</v>
       </c>
       <c r="Y19" t="n">
-        <v>1205.711814750802</v>
+        <v>758.4873575891487</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413024</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133955</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133955</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310024</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2407.960931088798</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.18258121309</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.4004511715422</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1344.266747951538</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E25" t="n">
         <v>533.5814564942656</v>
@@ -6139,19 +6139,19 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6160,10 +6160,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q25" t="n">
         <v>2639.297491717215</v>
@@ -6172,13 +6172,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V25" t="n">
         <v>1748.685508594055</v>
@@ -6187,7 +6187,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y25" t="n">
         <v>1084.076049400516</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
         <v>656.9646031150023</v>
@@ -6373,7 +6373,7 @@
         <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6382,7 +6382,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
         <v>483.8255460380728</v>
@@ -6406,16 +6406,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384014</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6649,22 +6649,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
@@ -6853,13 +6853,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311324</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,16 +7023,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,16 +7111,16 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7199,22 +7199,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,10 +7582,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123343</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>84.81225371297182</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>27.10657390607361</v>
+        <v>13.99740625678055</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.3387803012722</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>261.1418814518373</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>57.65542908295716</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>118.6913945753449</v>
+        <v>14.69519817328201</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.2128846164207</v>
       </c>
       <c r="H4" t="n">
-        <v>146.4182938009555</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9783166848767</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>139.1160280675015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.3482755304824</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>248.3553797621775</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>134.671115187089</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>83.05123379926079</v>
       </c>
     </row>
     <row r="14">
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.97276993489248</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>83.79952661609454</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>73.85777223953454</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>62.35543909865009</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194262</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.4141550350974</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -26329,7 +26329,7 @@
         <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="I2" t="n">
         <v>20526.0442466071</v>
@@ -26338,19 +26338,19 @@
         <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="L2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26366,13 +26366,13 @@
         <v>1186172.826266607</v>
       </c>
       <c r="C3" t="n">
-        <v>135540.2139992236</v>
+        <v>135540.2139992229</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
-        <v>184268.196525982</v>
+        <v>184268.1965259821</v>
       </c>
       <c r="K3" t="n">
-        <v>32719.39465488822</v>
+        <v>32719.39465488807</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16646.75586284792</v>
+        <v>16646.75586284791</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26442,19 +26442,19 @@
         <v>18547.94754987467</v>
       </c>
       <c r="K4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987474</v>
       </c>
       <c r="L4" t="n">
         <v>18547.94754987468</v>
       </c>
       <c r="M4" t="n">
+        <v>18547.94754987468</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18547.94754987468</v>
+      </c>
+      <c r="O4" t="n">
         <v>18547.94754987467</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18547.94754987473</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18547.94754987472</v>
       </c>
       <c r="P4" t="n">
         <v>18547.94754987468</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97942.80602990602</v>
+        <v>97942.80602990605</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1284879.311832999</v>
+        <v>-1285343.608625024</v>
       </c>
       <c r="C6" t="n">
-        <v>-312692.2333721423</v>
+        <v>-312692.2333721417</v>
       </c>
       <c r="D6" t="n">
         <v>-177152.0193729187</v>
       </c>
       <c r="E6" t="n">
-        <v>-416913.4149257934</v>
+        <v>-416948.152851229</v>
       </c>
       <c r="F6" t="n">
-        <v>-91500.95311843818</v>
+        <v>-91535.69104387386</v>
       </c>
       <c r="G6" t="n">
-        <v>-91500.95311843818</v>
+        <v>-91535.69104387386</v>
       </c>
       <c r="H6" t="n">
-        <v>-91500.95311843816</v>
+        <v>-91535.69104387387</v>
       </c>
       <c r="I6" t="n">
         <v>-120613.7371508147</v>
       </c>
       <c r="J6" t="n">
-        <v>-285454.2156831649</v>
+        <v>-285454.2156831651</v>
       </c>
       <c r="K6" t="n">
-        <v>-133905.4138120712</v>
+        <v>-133905.4138120711</v>
       </c>
       <c r="L6" t="n">
         <v>-101186.019157183</v>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>986.0343569483914</v>
+        <v>986.0343569483917</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.2706751386692</v>
+        <v>704.2706751386696</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>986.0343569483914</v>
+        <v>986.0343569483917</v>
       </c>
       <c r="C3" t="n">
-        <v>103.7423436449069</v>
+        <v>103.7423436449063</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.2706751386692</v>
+        <v>704.2706751386696</v>
       </c>
       <c r="C4" t="n">
-        <v>127.1307802636234</v>
+        <v>127.130780263623</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>704.2706751386692</v>
+        <v>704.2706751386696</v>
       </c>
       <c r="K4" t="n">
-        <v>127.1307802636234</v>
+        <v>127.1307802636228</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>704.2706751386692</v>
+        <v>704.2706751386696</v>
       </c>
       <c r="K4" t="n">
-        <v>127.1307802636234</v>
+        <v>127.130780263623</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>168.8039123885453</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>81.23281296303168</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>60.38932290829166</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.6065267968216</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>299.7973096449908</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>77.37908764444971</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>136.9698866949904</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>27.38138722868899</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.963957213862877</v>
+        <v>3.963957213862878</v>
       </c>
       <c r="H2" t="n">
-        <v>40.5958768164732</v>
+        <v>40.59587681647321</v>
       </c>
       <c r="I2" t="n">
-        <v>152.8204604874487</v>
+        <v>152.8204604874488</v>
       </c>
       <c r="J2" t="n">
-        <v>336.4359135800947</v>
+        <v>336.4359135800948</v>
       </c>
       <c r="K2" t="n">
-        <v>504.2302224429104</v>
+        <v>504.2302224429105</v>
       </c>
       <c r="L2" t="n">
-        <v>625.5421780266665</v>
+        <v>625.5421780266668</v>
       </c>
       <c r="M2" t="n">
-        <v>696.0362021287004</v>
+        <v>696.0362021287007</v>
       </c>
       <c r="N2" t="n">
-        <v>707.2987955625883</v>
+        <v>707.2987955625886</v>
       </c>
       <c r="O2" t="n">
-        <v>667.8821960172394</v>
+        <v>667.8821960172396</v>
       </c>
       <c r="P2" t="n">
-        <v>570.0220022999995</v>
+        <v>570.0220022999997</v>
       </c>
       <c r="Q2" t="n">
-        <v>428.0627845785351</v>
+        <v>428.0627845785352</v>
       </c>
       <c r="R2" t="n">
-        <v>249.0009273353142</v>
+        <v>249.0009273353143</v>
       </c>
       <c r="S2" t="n">
-        <v>90.3286750109004</v>
+        <v>90.32867501090043</v>
       </c>
       <c r="T2" t="n">
-        <v>17.35222270368475</v>
+        <v>17.35222270368476</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3171165771090301</v>
+        <v>0.3171165771090302</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.120904088530502</v>
+        <v>2.120904088530503</v>
       </c>
       <c r="H3" t="n">
-        <v>20.48346843396564</v>
+        <v>20.48346843396565</v>
       </c>
       <c r="I3" t="n">
-        <v>73.02235567966862</v>
+        <v>73.02235567966865</v>
       </c>
       <c r="J3" t="n">
         <v>200.3789253115595</v>
       </c>
       <c r="K3" t="n">
-        <v>342.4794992431031</v>
+        <v>342.4794992431032</v>
       </c>
       <c r="L3" t="n">
-        <v>460.5059513276427</v>
+        <v>460.5059513276428</v>
       </c>
       <c r="M3" t="n">
-        <v>537.3887245368733</v>
+        <v>537.3887245368734</v>
       </c>
       <c r="N3" t="n">
-        <v>551.6118050253082</v>
+        <v>551.6118050253084</v>
       </c>
       <c r="O3" t="n">
-        <v>504.6170354847112</v>
+        <v>504.6170354847114</v>
       </c>
       <c r="P3" t="n">
-        <v>404.9996588001799</v>
+        <v>404.99965880018</v>
       </c>
       <c r="Q3" t="n">
-        <v>270.7315464587357</v>
+        <v>270.7315464587358</v>
       </c>
       <c r="R3" t="n">
-        <v>131.6820977071833</v>
+        <v>131.6820977071834</v>
       </c>
       <c r="S3" t="n">
-        <v>39.39486322336259</v>
+        <v>39.39486322336261</v>
       </c>
       <c r="T3" t="n">
-        <v>8.548731830524259</v>
+        <v>8.548731830524261</v>
       </c>
       <c r="U3" t="n">
         <v>0.1395331637191121</v>
@@ -31203,43 +31203,43 @@
         <v>15.80887870648406</v>
       </c>
       <c r="I4" t="n">
-        <v>53.47215824238163</v>
+        <v>53.47215824238165</v>
       </c>
       <c r="J4" t="n">
-        <v>125.7112982620924</v>
+        <v>125.7112982620925</v>
       </c>
       <c r="K4" t="n">
-        <v>206.5822800295154</v>
+        <v>206.5822800295155</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3541946480983</v>
+        <v>264.3541946480984</v>
       </c>
       <c r="M4" t="n">
         <v>278.7244330632969</v>
       </c>
       <c r="N4" t="n">
-        <v>272.0969890247915</v>
+        <v>272.0969890247916</v>
       </c>
       <c r="O4" t="n">
-        <v>251.3256095382556</v>
+        <v>251.3256095382557</v>
       </c>
       <c r="P4" t="n">
         <v>215.0524768006786</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.8911878992071</v>
+        <v>148.8911878992072</v>
       </c>
       <c r="R4" t="n">
-        <v>79.94960540109413</v>
+        <v>79.94960540109416</v>
       </c>
       <c r="S4" t="n">
-        <v>30.9873420044273</v>
+        <v>30.98734200442731</v>
       </c>
       <c r="T4" t="n">
-        <v>7.597313897799078</v>
+        <v>7.597313897799081</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09698698592935008</v>
+        <v>0.09698698592935011</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>574.2721069128561</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,10 +32324,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32716,7 +32716,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,7 +32798,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>522.1224556861836</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33430,7 +33430,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>402.2342772868849</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>155.3900090534084</v>
+        <v>155.3900090534085</v>
       </c>
       <c r="K2" t="n">
-        <v>284.1403713979298</v>
+        <v>284.14037139793</v>
       </c>
       <c r="L2" t="n">
-        <v>389.7757630566793</v>
+        <v>389.7757630566795</v>
       </c>
       <c r="M2" t="n">
-        <v>465.6899689014277</v>
+        <v>465.689968901428</v>
       </c>
       <c r="N2" t="n">
-        <v>477.8857319659974</v>
+        <v>477.8857319659976</v>
       </c>
       <c r="O2" t="n">
-        <v>437.7839845955526</v>
+        <v>437.7839845955529</v>
       </c>
       <c r="P2" t="n">
-        <v>338.7890065447299</v>
+        <v>338.7890065447302</v>
       </c>
       <c r="Q2" t="n">
-        <v>205.7570947040856</v>
+        <v>205.7570947040857</v>
       </c>
       <c r="R2" t="n">
-        <v>33.41538952118205</v>
+        <v>33.41538952118214</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>199.6323339853016</v>
+        <v>73.54129864489283</v>
       </c>
       <c r="K3" t="n">
-        <v>204.6380602687441</v>
+        <v>469.1032972813229</v>
       </c>
       <c r="L3" t="n">
-        <v>321.9515715477685</v>
+        <v>321.9515715477687</v>
       </c>
       <c r="M3" t="n">
-        <v>395.254690614855</v>
+        <v>395.2546906148551</v>
       </c>
       <c r="N3" t="n">
-        <v>420.2700929419749</v>
+        <v>420.2700929419751</v>
       </c>
       <c r="O3" t="n">
-        <v>362.0207910402668</v>
+        <v>362.0207910402669</v>
       </c>
       <c r="P3" t="n">
-        <v>271.0252513858497</v>
+        <v>355.8375050988216</v>
       </c>
       <c r="Q3" t="n">
-        <v>340.8270601085633</v>
+        <v>130.7497723727143</v>
       </c>
       <c r="R3" t="n">
-        <v>13.109167649293</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>32.35211814541967</v>
+        <v>32.35211814541971</v>
       </c>
       <c r="K4" t="n">
-        <v>184.3127882036325</v>
+        <v>184.3127882036326</v>
       </c>
       <c r="L4" t="n">
-        <v>291.9442199084144</v>
+        <v>291.9442199084145</v>
       </c>
       <c r="M4" t="n">
         <v>318.3083100251375</v>
@@ -34869,13 +34869,13 @@
         <v>316.2291614040201</v>
       </c>
       <c r="O4" t="n">
-        <v>275.9107374522953</v>
+        <v>275.9107374522954</v>
       </c>
       <c r="P4" t="n">
         <v>212.3310360655721</v>
       </c>
       <c r="Q4" t="n">
-        <v>62.72914464751271</v>
+        <v>62.72914464751277</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>431.6758624684117</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,10 +35972,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>379.5262112417391</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37944,16 +37944,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>263.6798975070108</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
